--- a/results/Auto/genero-m1_me_parece_muy_adjetivopositivo-m2.xlsx
+++ b/results/Auto/genero-m1_me_parece_muy_adjetivopositivo-m2.xlsx
@@ -488,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001570903579704463</v>
+        <v>7.113496280908294e-08</v>
       </c>
       <c r="E2" t="n">
         <v>3.69316476280801e-05</v>
@@ -505,7 +505,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -527,7 +527,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.007658740039914846</v>
+        <v>1.01166776289574e-07</v>
       </c>
       <c r="E3" t="n">
         <v>0.0008846314158290625</v>
@@ -544,7 +544,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -566,7 +566,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001829169574193656</v>
+        <v>3.432969819527898e-08</v>
       </c>
       <c r="E4" t="n">
         <v>7.280689897015691e-05</v>
@@ -583,7 +583,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -605,7 +605,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00238326913677156</v>
+        <v>4.826211097430644e-10</v>
       </c>
       <c r="E5" t="n">
         <v>9.945641068043187e-05</v>
@@ -622,7 +622,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -644,7 +644,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.006477924529463053</v>
+        <v>1.183412390304284e-08</v>
       </c>
       <c r="E6" t="n">
         <v>8.667763904668391e-05</v>
@@ -661,7 +661,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -683,7 +683,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01366117782890797</v>
+        <v>7.67487495778596e-09</v>
       </c>
       <c r="E7" t="n">
         <v>0.001054260297678411</v>
@@ -700,7 +700,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -722,7 +722,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0002533446240704507</v>
+        <v>5.284985227227423e-10</v>
       </c>
       <c r="E8" t="n">
         <v>2.383580977038946e-05</v>
@@ -739,7 +739,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -761,7 +761,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>0.002986392471939325</v>
+        <v>8.648151528234393e-09</v>
       </c>
       <c r="E9" t="n">
         <v>0.0002318859333172441</v>
@@ -778,7 +778,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -800,7 +800,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>0.002216599881649017</v>
+        <v>8.52228421166501e-09</v>
       </c>
       <c r="E10" t="n">
         <v>0.0002217198925791308</v>
@@ -817,7 +817,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -839,7 +839,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>0.009066397324204445</v>
+        <v>1.13760281195141e-08</v>
       </c>
       <c r="E11" t="n">
         <v>8.780992357060313e-05</v>
@@ -856,7 +856,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -878,7 +878,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>0.003921921364963055</v>
+        <v>8.356876080028997e-09</v>
       </c>
       <c r="E12" t="n">
         <v>0.0001430317206541076</v>
@@ -895,7 +895,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -917,7 +917,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>0.00459917401894927</v>
+        <v>5.21967145061808e-08</v>
       </c>
       <c r="E13" t="n">
         <v>0.0004371828108560294</v>
@@ -934,7 +934,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -956,7 +956,7 @@
         <v>13</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01243142317980528</v>
+        <v>2.168146728820375e-08</v>
       </c>
       <c r="E14" t="n">
         <v>0.0007113445899449289</v>
@@ -973,7 +973,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -995,7 +995,7 @@
         <v>14</v>
       </c>
       <c r="D15" t="n">
-        <v>0.104470819234848</v>
+        <v>1.910584579434271e-09</v>
       </c>
       <c r="E15" t="n">
         <v>2.636620229168329e-05</v>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1034,7 +1034,7 @@
         <v>15</v>
       </c>
       <c r="D16" t="n">
-        <v>0.009030232205986977</v>
+        <v>1.467437060753696e-09</v>
       </c>
       <c r="E16" t="n">
         <v>6.352974014589563e-05</v>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1073,7 +1073,7 @@
         <v>16</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01497887726873159</v>
+        <v>3.226307399017969e-08</v>
       </c>
       <c r="E17" t="n">
         <v>0.0003492613323032856</v>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1112,7 +1112,7 @@
         <v>17</v>
       </c>
       <c r="D18" t="n">
-        <v>0.001940131885930896</v>
+        <v>1.139567640251471e-08</v>
       </c>
       <c r="E18" t="n">
         <v>0.0001750166120473295</v>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1151,7 +1151,7 @@
         <v>18</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0008732415735721588</v>
+        <v>1.860444298618091e-10</v>
       </c>
       <c r="E19" t="n">
         <v>3.486447167233564e-05</v>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1190,7 +1190,7 @@
         <v>19</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01390693709254265</v>
+        <v>2.66796504888589e-08</v>
       </c>
       <c r="E20" t="n">
         <v>0.0006155689479783177</v>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1229,7 +1229,7 @@
         <v>20</v>
       </c>
       <c r="D21" t="n">
-        <v>0.005231491755694151</v>
+        <v>1.085559553359872e-08</v>
       </c>
       <c r="E21" t="n">
         <v>0.0004217715177219361</v>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1268,7 +1268,7 @@
         <v>21</v>
       </c>
       <c r="D22" t="n">
-        <v>0.01127074658870697</v>
+        <v>2.613549554553174e-07</v>
       </c>
       <c r="E22" t="n">
         <v>0.000481457740534097</v>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1307,7 +1307,7 @@
         <v>22</v>
       </c>
       <c r="D23" t="n">
-        <v>0.004700857680290937</v>
+        <v>1.048894393562705e-08</v>
       </c>
       <c r="E23" t="n">
         <v>0.0001620893599465489</v>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1346,7 +1346,7 @@
         <v>23</v>
       </c>
       <c r="D24" t="n">
-        <v>0.01003873627632856</v>
+        <v>1.757424072934555e-08</v>
       </c>
       <c r="E24" t="n">
         <v>0.00017784524243325</v>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1385,7 +1385,7 @@
         <v>24</v>
       </c>
       <c r="D25" t="n">
-        <v>0.003600998315960169</v>
+        <v>1.187711706762684e-09</v>
       </c>
       <c r="E25" t="n">
         <v>0.0003775152727030218</v>
@@ -1402,7 +1402,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1424,7 +1424,7 @@
         <v>25</v>
       </c>
       <c r="D26" t="n">
-        <v>0.007121485657989979</v>
+        <v>3.096539913371998e-08</v>
       </c>
       <c r="E26" t="n">
         <v>0.0003456991107668728</v>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1463,7 +1463,7 @@
         <v>26</v>
       </c>
       <c r="D27" t="n">
-        <v>0.009332288987934589</v>
+        <v>3.89793513022596e-08</v>
       </c>
       <c r="E27" t="n">
         <v>0.0001064132447936572</v>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1502,7 +1502,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="n">
-        <v>0.02455428801476955</v>
+        <v>4.039192802451907e-08</v>
       </c>
       <c r="E28" t="n">
         <v>0.00019721248827409</v>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1541,7 +1541,7 @@
         <v>28</v>
       </c>
       <c r="D29" t="n">
-        <v>0.01854662224650383</v>
+        <v>1.597916110540609e-08</v>
       </c>
       <c r="E29" t="n">
         <v>0.002499378984794021</v>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1580,7 +1580,7 @@
         <v>29</v>
       </c>
       <c r="D30" t="n">
-        <v>0.005295413546264172</v>
+        <v>5.434927530245659e-08</v>
       </c>
       <c r="E30" t="n">
         <v>0.0002035553043242544</v>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1619,7 +1619,7 @@
         <v>30</v>
       </c>
       <c r="D31" t="n">
-        <v>0.002149207284674048</v>
+        <v>2.785145891692764e-09</v>
       </c>
       <c r="E31" t="n">
         <v>0.0001119732696679421</v>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1658,7 +1658,7 @@
         <v>31</v>
       </c>
       <c r="D32" t="n">
-        <v>0.004497716203331947</v>
+        <v>8.341081603191469e-09</v>
       </c>
       <c r="E32" t="n">
         <v>0.0004927563131786883</v>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -1697,7 +1697,7 @@
         <v>32</v>
       </c>
       <c r="D33" t="n">
-        <v>0.01013551279902458</v>
+        <v>2.686216582503675e-08</v>
       </c>
       <c r="E33" t="n">
         <v>0.0002549722557887435</v>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1736,7 +1736,7 @@
         <v>33</v>
       </c>
       <c r="D34" t="n">
-        <v>0.00704876147210598</v>
+        <v>1.892270340420055e-08</v>
       </c>
       <c r="E34" t="n">
         <v>0.0006662844098173082</v>
@@ -1753,7 +1753,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -1775,7 +1775,7 @@
         <v>34</v>
       </c>
       <c r="D35" t="n">
-        <v>0.006232475861907005</v>
+        <v>1.502723279145357e-08</v>
       </c>
       <c r="E35" t="n">
         <v>0.0005170435179024935</v>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -1814,7 +1814,7 @@
         <v>35</v>
       </c>
       <c r="D36" t="n">
-        <v>0.00189812749158591</v>
+        <v>1.865012144719458e-08</v>
       </c>
       <c r="E36" t="n">
         <v>0.0001260755234397948</v>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -1853,7 +1853,7 @@
         <v>36</v>
       </c>
       <c r="D37" t="n">
-        <v>0.008496447466313839</v>
+        <v>2.674641130795408e-08</v>
       </c>
       <c r="E37" t="n">
         <v>0.0002741611679084599</v>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -1892,7 +1892,7 @@
         <v>37</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0110679604113102</v>
+        <v>4.687248278401057e-08</v>
       </c>
       <c r="E38" t="n">
         <v>0.0001253356458619237</v>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -1931,7 +1931,7 @@
         <v>38</v>
       </c>
       <c r="D39" t="n">
-        <v>0.01058153435587883</v>
+        <v>7.119914435804731e-09</v>
       </c>
       <c r="E39" t="n">
         <v>0.0002777134941425174</v>
@@ -1948,7 +1948,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -1970,7 +1970,7 @@
         <v>39</v>
       </c>
       <c r="D40" t="n">
-        <v>0.001280705560930073</v>
+        <v>1.80210435463124e-09</v>
       </c>
       <c r="E40" t="n">
         <v>0.0001903679076349363</v>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2009,7 +2009,7 @@
         <v>40</v>
       </c>
       <c r="D41" t="n">
-        <v>0.02086151577532291</v>
+        <v>3.664659686819505e-08</v>
       </c>
       <c r="E41" t="n">
         <v>0.001532501424662769</v>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2048,7 +2048,7 @@
         <v>41</v>
       </c>
       <c r="D42" t="n">
-        <v>0.004640154540538788</v>
+        <v>5.324924146066223e-08</v>
       </c>
       <c r="E42" t="n">
         <v>0.0001318033464485779</v>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2087,7 +2087,7 @@
         <v>42</v>
       </c>
       <c r="D43" t="n">
-        <v>0.003229594090953469</v>
+        <v>2.390713049749138e-08</v>
       </c>
       <c r="E43" t="n">
         <v>0.0004606652073562145</v>
@@ -2104,7 +2104,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2126,7 +2126,7 @@
         <v>43</v>
       </c>
       <c r="D44" t="n">
-        <v>0.06129471585154533</v>
+        <v>3.576379370429095e-08</v>
       </c>
       <c r="E44" t="n">
         <v>0.001679547945968807</v>
@@ -2143,7 +2143,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2165,7 +2165,7 @@
         <v>44</v>
       </c>
       <c r="D45" t="n">
-        <v>0.00303445034660399</v>
+        <v>3.994470532120431e-08</v>
       </c>
       <c r="E45" t="n">
         <v>0.001382406800985336</v>
@@ -2182,7 +2182,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2204,7 +2204,7 @@
         <v>45</v>
       </c>
       <c r="D46" t="n">
-        <v>0.003819810226559639</v>
+        <v>2.649403185728261e-08</v>
       </c>
       <c r="E46" t="n">
         <v>0.0001894640881801024</v>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2243,7 +2243,7 @@
         <v>46</v>
       </c>
       <c r="D47" t="n">
-        <v>0.005769653245806694</v>
+        <v>1.467081744976895e-08</v>
       </c>
       <c r="E47" t="n">
         <v>0.0001520318619441241</v>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2282,7 +2282,7 @@
         <v>47</v>
       </c>
       <c r="D48" t="n">
-        <v>0.001606299658305943</v>
+        <v>3.264254144763612e-10</v>
       </c>
       <c r="E48" t="n">
         <v>0.0001089317083824426</v>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2321,7 +2321,7 @@
         <v>48</v>
       </c>
       <c r="D49" t="n">
-        <v>0.02638204768300056</v>
+        <v>3.178054441832501e-08</v>
       </c>
       <c r="E49" t="n">
         <v>0.0001052491570590064</v>
@@ -2338,7 +2338,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2360,7 +2360,7 @@
         <v>49</v>
       </c>
       <c r="D50" t="n">
-        <v>0.001726450980640948</v>
+        <v>1.042346764457136e-09</v>
       </c>
       <c r="E50" t="n">
         <v>4.161502511124127e-05</v>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -2399,7 +2399,7 @@
         <v>50</v>
       </c>
       <c r="D51" t="n">
-        <v>0.03042462468147278</v>
+        <v>9.067314010735572e-09</v>
       </c>
       <c r="E51" t="n">
         <v>0.0004134456685278565</v>
@@ -2416,7 +2416,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2438,7 +2438,7 @@
         <v>51</v>
       </c>
       <c r="D52" t="n">
-        <v>0.00291013577952981</v>
+        <v>2.389415421077956e-08</v>
       </c>
       <c r="E52" t="n">
         <v>6.2942759541329e-05</v>
@@ -2455,7 +2455,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -2477,7 +2477,7 @@
         <v>52</v>
       </c>
       <c r="D53" t="n">
-        <v>0.00774321099743247</v>
+        <v>4.38448699568994e-09</v>
       </c>
       <c r="E53" t="n">
         <v>0.0004649845941457897</v>
@@ -2494,7 +2494,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -2516,7 +2516,7 @@
         <v>53</v>
       </c>
       <c r="D54" t="n">
-        <v>0.03148268163204193</v>
+        <v>7.83975906415435e-09</v>
       </c>
       <c r="E54" t="n">
         <v>0.0006516971043311059</v>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -2555,7 +2555,7 @@
         <v>54</v>
       </c>
       <c r="D55" t="n">
-        <v>0.004812588915228844</v>
+        <v>1.997774035089606e-08</v>
       </c>
       <c r="E55" t="n">
         <v>0.0004493343876674771</v>
@@ -2572,7 +2572,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -2594,7 +2594,7 @@
         <v>55</v>
       </c>
       <c r="D56" t="n">
-        <v>0.006977514363825321</v>
+        <v>2.776514351765513e-09</v>
       </c>
       <c r="E56" t="n">
         <v>0.0003414155507925898</v>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -2633,7 +2633,7 @@
         <v>56</v>
       </c>
       <c r="D57" t="n">
-        <v>0.006792056374251842</v>
+        <v>9.238057430138724e-09</v>
       </c>
       <c r="E57" t="n">
         <v>0.0001588764134794474</v>
@@ -2650,7 +2650,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -2672,7 +2672,7 @@
         <v>57</v>
       </c>
       <c r="D58" t="n">
-        <v>0.007210009731352329</v>
+        <v>3.634926359907809e-09</v>
       </c>
       <c r="E58" t="n">
         <v>5.087184035801329e-05</v>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -2711,7 +2711,7 @@
         <v>58</v>
       </c>
       <c r="D59" t="n">
-        <v>0.03591457381844521</v>
+        <v>9.627601826878163e-08</v>
       </c>
       <c r="E59" t="n">
         <v>0.0008232679101638496</v>
@@ -2728,7 +2728,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -2750,7 +2750,7 @@
         <v>59</v>
       </c>
       <c r="D60" t="n">
-        <v>0.008932380005717278</v>
+        <v>4.798591390908769e-08</v>
       </c>
       <c r="E60" t="n">
         <v>0.0006129493121989071</v>
@@ -2767,7 +2767,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -2789,7 +2789,7 @@
         <v>60</v>
       </c>
       <c r="D61" t="n">
-        <v>0.006893966346979141</v>
+        <v>7.961279635537721e-08</v>
       </c>
       <c r="E61" t="n">
         <v>0.0003254319017287344</v>
@@ -2806,7 +2806,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -2828,7 +2828,7 @@
         <v>61</v>
       </c>
       <c r="D62" t="n">
-        <v>0.001417200663127005</v>
+        <v>3.913269708277767e-09</v>
       </c>
       <c r="E62" t="n">
         <v>0.000221169539145194</v>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -2867,7 +2867,7 @@
         <v>62</v>
       </c>
       <c r="D63" t="n">
-        <v>0.002078789519146085</v>
+        <v>1.127245852217129e-09</v>
       </c>
       <c r="E63" t="n">
         <v>0.0001062605297192931</v>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -2906,7 +2906,7 @@
         <v>63</v>
       </c>
       <c r="D64" t="n">
-        <v>0.001772630028426647</v>
+        <v>1.875143373908372e-09</v>
       </c>
       <c r="E64" t="n">
         <v>5.93026343267411e-05</v>
@@ -2923,7 +2923,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -2945,7 +2945,7 @@
         <v>64</v>
       </c>
       <c r="D65" t="n">
-        <v>0.005509310867637396</v>
+        <v>2.699560797125855e-09</v>
       </c>
       <c r="E65" t="n">
         <v>3.631749859778211e-05</v>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -2984,7 +2984,7 @@
         <v>65</v>
       </c>
       <c r="D66" t="n">
-        <v>0.001621123170480132</v>
+        <v>8.889466052153239e-09</v>
       </c>
       <c r="E66" t="n">
         <v>8.435008203377947e-05</v>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3023,7 +3023,7 @@
         <v>66</v>
       </c>
       <c r="D67" t="n">
-        <v>0.001593488501384854</v>
+        <v>8.917941940467244e-09</v>
       </c>
       <c r="E67" t="n">
         <v>5.83964902034495e-05</v>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3062,7 +3062,7 @@
         <v>67</v>
       </c>
       <c r="D68" t="n">
-        <v>0.001283202203921974</v>
+        <v>2.398696574701376e-09</v>
       </c>
       <c r="E68" t="n">
         <v>4.502148294704966e-05</v>
@@ -3079,7 +3079,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3101,7 +3101,7 @@
         <v>68</v>
       </c>
       <c r="D69" t="n">
-        <v>0.001842161058448255</v>
+        <v>1.958723183648203e-09</v>
       </c>
       <c r="E69" t="n">
         <v>6.999896868364885e-05</v>
@@ -3118,7 +3118,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -3140,7 +3140,7 @@
         <v>69</v>
       </c>
       <c r="D70" t="n">
-        <v>0.005914797075092793</v>
+        <v>3.211260146684936e-09</v>
       </c>
       <c r="E70" t="n">
         <v>8.429200534010306e-05</v>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -3179,7 +3179,7 @@
         <v>70</v>
       </c>
       <c r="D71" t="n">
-        <v>0.00720985746011138</v>
+        <v>9.99093874298751e-09</v>
       </c>
       <c r="E71" t="n">
         <v>0.0003378103428985924</v>
@@ -3196,7 +3196,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -3218,7 +3218,7 @@
         <v>71</v>
       </c>
       <c r="D72" t="n">
-        <v>0.01015896908938885</v>
+        <v>1.988446918232967e-08</v>
       </c>
       <c r="E72" t="n">
         <v>0.0001527413551229984</v>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -3257,7 +3257,7 @@
         <v>72</v>
       </c>
       <c r="D73" t="n">
-        <v>0.02410566806793213</v>
+        <v>1.73839307393564e-08</v>
       </c>
       <c r="E73" t="n">
         <v>0.0009624176891520619</v>
@@ -3274,7 +3274,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -3296,7 +3296,7 @@
         <v>73</v>
       </c>
       <c r="D74" t="n">
-        <v>0.01940598897635937</v>
+        <v>9.949579826695754e-09</v>
       </c>
       <c r="E74" t="n">
         <v>0.00079277966869995</v>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -3335,7 +3335,7 @@
         <v>74</v>
       </c>
       <c r="D75" t="n">
-        <v>0.006405325140804052</v>
+        <v>3.979555573963012e-10</v>
       </c>
       <c r="E75" t="n">
         <v>2.12870381801622e-05</v>
@@ -3352,7 +3352,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -3374,7 +3374,7 @@
         <v>75</v>
       </c>
       <c r="D76" t="n">
-        <v>0.006468260195106268</v>
+        <v>2.577434043971039e-09</v>
       </c>
       <c r="E76" t="n">
         <v>1.962167743840837e-06</v>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -3413,7 +3413,7 @@
         <v>76</v>
       </c>
       <c r="D77" t="n">
-        <v>0.003129013581201434</v>
+        <v>2.150059241756708e-09</v>
       </c>
       <c r="E77" t="n">
         <v>0.0003297780058346689</v>
@@ -3430,7 +3430,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -3452,7 +3452,7 @@
         <v>77</v>
       </c>
       <c r="D78" t="n">
-        <v>0.01157608069479465</v>
+        <v>2.741560578556346e-08</v>
       </c>
       <c r="E78" t="n">
         <v>0.0002065887383650988</v>
@@ -3469,7 +3469,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -3491,7 +3491,7 @@
         <v>78</v>
       </c>
       <c r="D79" t="n">
-        <v>0.007485102862119675</v>
+        <v>1.11569287142288e-08</v>
       </c>
       <c r="E79" t="n">
         <v>1.479411184845958e-05</v>
@@ -3508,7 +3508,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -3530,7 +3530,7 @@
         <v>79</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0006742974510416389</v>
+        <v>4.174836476522614e-09</v>
       </c>
       <c r="E80" t="n">
         <v>0.0006261636735871434</v>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -3569,7 +3569,7 @@
         <v>80</v>
       </c>
       <c r="D81" t="n">
-        <v>0.04878436774015427</v>
+        <v>3.718900032367856e-08</v>
       </c>
       <c r="E81" t="n">
         <v>0.0009563738130964339</v>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -3608,7 +3608,7 @@
         <v>81</v>
       </c>
       <c r="D82" t="n">
-        <v>0.004633856937289238</v>
+        <v>3.115909663620187e-08</v>
       </c>
       <c r="E82" t="n">
         <v>7.050840213196352e-05</v>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -3647,7 +3647,7 @@
         <v>82</v>
       </c>
       <c r="D83" t="n">
-        <v>0.006620529573410749</v>
+        <v>2.102270579840138e-09</v>
       </c>
       <c r="E83" t="n">
         <v>0.001836881623603404</v>
@@ -3664,7 +3664,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -3686,7 +3686,7 @@
         <v>83</v>
       </c>
       <c r="D84" t="n">
-        <v>0.006023113150149584</v>
+        <v>1.028494445165506e-08</v>
       </c>
       <c r="E84" t="n">
         <v>0.0008157206466421485</v>
@@ -3703,7 +3703,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -3725,7 +3725,7 @@
         <v>84</v>
       </c>
       <c r="D85" t="n">
-        <v>0.01205160282552242</v>
+        <v>3.57510548942841e-10</v>
       </c>
       <c r="E85" t="n">
         <v>1.770198196027195e-06</v>
@@ -3742,7 +3742,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -3764,7 +3764,7 @@
         <v>85</v>
       </c>
       <c r="D86" t="n">
-        <v>0.006188978906720877</v>
+        <v>4.849688650665485e-09</v>
       </c>
       <c r="E86" t="n">
         <v>0.0002885229187086225</v>
@@ -3781,7 +3781,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -3803,7 +3803,7 @@
         <v>86</v>
       </c>
       <c r="D87" t="n">
-        <v>0.001660827314481139</v>
+        <v>7.456698369878723e-09</v>
       </c>
       <c r="E87" t="n">
         <v>5.364131357055157e-05</v>
@@ -3820,7 +3820,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -3842,7 +3842,7 @@
         <v>87</v>
       </c>
       <c r="D88" t="n">
-        <v>0.002202968345955014</v>
+        <v>4.329635538979915e-10</v>
       </c>
       <c r="E88" t="n">
         <v>0.002721161115914583</v>
@@ -3859,7 +3859,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -3881,7 +3881,7 @@
         <v>88</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0209113135933876</v>
+        <v>8.344055402176309e-08</v>
       </c>
       <c r="E89" t="n">
         <v>0.0004348861402831972</v>
@@ -3898,7 +3898,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -3920,7 +3920,7 @@
         <v>89</v>
       </c>
       <c r="D90" t="n">
-        <v>0.03148268163204193</v>
+        <v>7.83975906415435e-09</v>
       </c>
       <c r="E90" t="n">
         <v>0.0006516971043311059</v>
@@ -3937,7 +3937,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -3959,7 +3959,7 @@
         <v>90</v>
       </c>
       <c r="D91" t="n">
-        <v>0.06257238239049911</v>
+        <v>5.4121236381377e-09</v>
       </c>
       <c r="E91" t="n">
         <v>0.0004909728886559606</v>
@@ -3976,7 +3976,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -3998,7 +3998,7 @@
         <v>91</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0233725942671299</v>
+        <v>2.90863102492267e-08</v>
       </c>
       <c r="E92" t="n">
         <v>0.0002125658065779135</v>
@@ -4015,7 +4015,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -4037,7 +4037,7 @@
         <v>92</v>
       </c>
       <c r="D93" t="n">
-        <v>0.001495118485763669</v>
+        <v>7.203435625768861e-10</v>
       </c>
       <c r="E93" t="n">
         <v>1.347345914837206e-05</v>
@@ -4054,7 +4054,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -4076,7 +4076,7 @@
         <v>93</v>
       </c>
       <c r="D94" t="n">
-        <v>0.00110428431071341</v>
+        <v>2.854132485907712e-09</v>
       </c>
       <c r="E94" t="n">
         <v>0.0005933896172791719</v>
@@ -4093,7 +4093,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -4115,7 +4115,7 @@
         <v>94</v>
       </c>
       <c r="D95" t="n">
-        <v>0.01550023257732391</v>
+        <v>4.729611369214126e-09</v>
       </c>
       <c r="E95" t="n">
         <v>0.0004273786908015609</v>
@@ -4132,7 +4132,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -4154,7 +4154,7 @@
         <v>95</v>
       </c>
       <c r="D96" t="n">
-        <v>0.01369661465287209</v>
+        <v>6.153098297545512e-08</v>
       </c>
       <c r="E96" t="n">
         <v>0.0002700273471418768</v>
@@ -4171,7 +4171,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -4193,7 +4193,7 @@
         <v>96</v>
       </c>
       <c r="D97" t="n">
-        <v>0.004829832352697849</v>
+        <v>7.719023642493994e-09</v>
       </c>
       <c r="E97" t="n">
         <v>0.001324838725849986</v>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -4232,7 +4232,7 @@
         <v>97</v>
       </c>
       <c r="D98" t="n">
-        <v>0.004274055827409029</v>
+        <v>1.408375727152134e-08</v>
       </c>
       <c r="E98" t="n">
         <v>0.0008442421676591039</v>
@@ -4249,7 +4249,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -4271,7 +4271,7 @@
         <v>98</v>
       </c>
       <c r="D99" t="n">
-        <v>0.01930676214396954</v>
+        <v>1.000341198764687e-10</v>
       </c>
       <c r="E99" t="n">
         <v>0.0008061818080022931</v>
@@ -4288,7 +4288,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -4310,7 +4310,7 @@
         <v>99</v>
       </c>
       <c r="D100" t="n">
-        <v>0.05655772238969803</v>
+        <v>9.618775997921603e-09</v>
       </c>
       <c r="E100" t="n">
         <v>0.0007888411055319011</v>
@@ -4327,7 +4327,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -4349,7 +4349,7 @@
         <v>100</v>
       </c>
       <c r="D101" t="n">
-        <v>0.006377650890499353</v>
+        <v>6.751003311933346e-09</v>
       </c>
       <c r="E101" t="n">
         <v>0.0002039649989455938</v>
@@ -4366,7 +4366,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>el</t>
+          <t>él</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
